--- a/Foreigners_SB-0N_V1.xlsx
+++ b/Foreigners_SB-0N_V1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gimsh\Desktop\산학프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gimsh\Desktop\산학프로젝트\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A278CB6D-2FBE-47CD-9816-7EBB1385378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BA1CEF-0A1D-4AD3-B8DF-F0A47A10F222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{2C504C79-3137-4898-A3A3-AA3F1828AD5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C504C79-3137-4898-A3A3-AA3F1828AD5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>System parses the files and sends to AI model.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4pts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,13 +237,73 @@
     <t>System makes some types of test and displays it to User.</t>
   </si>
   <si>
-    <t>User solves the problem that system made from lectures.</t>
-  </si>
-  <si>
     <t>System grades user's level and ability</t>
   </si>
   <si>
     <t>System understands that how much User can do and makes learning schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System saves the images separately.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System sends the images to DB.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System parses the files.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System processes the texts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System generates the title of contents.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System processes the information of the images.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System sends the combined file to AI model.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System generates the summarized TXT and PDF file.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Foreigners</t>
+  </si>
+  <si>
+    <t>SYstem finds out the keywords.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System picks out some keywords at random.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System makes the test about picked out keywords.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System displays the test with time limit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System recieves the result from User.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User solves the test.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User can send the answer by to press the 'send' button within the time limit.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,21 +668,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6802C-13EA-4030-A004-8F69B6EA8EFD}">
-  <dimension ref="A2:F54"/>
+  <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="7.4140625" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="31.296875" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -662,7 +719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>14</v>
       </c>
@@ -673,7 +730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>15</v>
       </c>
@@ -684,80 +741,113 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -766,20 +856,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -788,165 +876,264 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C37" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
